--- a/documentacao/BurnDown/burndownSegundoSprint.xlsx
+++ b/documentacao/BurnDown/burndownSegundoSprint.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zViniciusRaphael\TCC\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TCC\documentacao\BurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EBF876-3930-47F8-94BC-8CF50944E96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Restante">OFFSET(Planilha1!$B$12,0,0,1,COUNT(Planilha1!$B$12:$V$12))</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +357,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -889,7 +889,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -920,7 +919,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -928,6 +926,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1024,7 +1023,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1069,6 +1067,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Restante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -1165,28 +1174,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.5</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106.5</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.5</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94</c:v>
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,6 +1249,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -1297,64 +1356,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.5</c:v>
+                  <c:v>109.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.5</c:v>
+                  <c:v>97.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.5</c:v>
+                  <c:v>86.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.5</c:v>
+                  <c:v>74.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.5</c:v>
+                  <c:v>63.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58.5</c:v>
+                  <c:v>51.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.5</c:v>
+                  <c:v>40.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.5</c:v>
+                  <c:v>28.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.5</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.5</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1496,7 +1555,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1527,7 +1585,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1535,6 +1592,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2693,13 +2751,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3463635</xdr:colOff>
+      <xdr:colOff>3463634</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>155864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>415636</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>981074</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>159327</xdr:rowOff>
     </xdr:to>
@@ -3025,11 +3083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4047,7 +4105,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -4056,38 +4114,66 @@
         <v>0</v>
       </c>
       <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>6</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -4101,33 +4187,61 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
       <c r="H20" s="4">
         <v>3</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="J20" s="4">
+        <v>4</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4">
+        <v>2</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -4139,75 +4253,131 @@
         <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
       <c r="H21" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="J21" s="4">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
       <c r="H22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>2</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>3</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -4221,33 +4391,61 @@
       <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
@@ -4270,26 +4468,52 @@
       <c r="I24" s="4">
         <v>0</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>2</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -4298,38 +4522,66 @@
         <v>2</v>
       </c>
       <c r="E25" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
       <c r="H25" s="4">
         <v>0</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -4343,33 +4595,61 @@
       <c r="F26" s="4">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
       <c r="H26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -4383,33 +4663,61 @@
       <c r="F27" s="4">
         <v>0</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
       <c r="H27" s="4">
         <v>0</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="J27" s="4">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>5</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -4421,28 +4729,56 @@
         <v>2</v>
       </c>
       <c r="F28" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
       <c r="H28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="4">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>2</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="V28" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
@@ -4450,49 +4786,88 @@
       </c>
       <c r="B29" s="4">
         <f>SUM(B19:B28)</f>
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C29" s="4">
-        <f>IF(SUM(C19:C28)&gt;0,B29-SUM(C19:C28),"")</f>
-        <v>126</v>
+        <f t="shared" ref="C29:V29" si="9">IF(SUM(C19:C28)&gt;0,B29-SUM(C19:C28),"")</f>
+        <v>111</v>
       </c>
       <c r="D29" s="4">
-        <f>IF(SUM(D19:D28)&gt;0,C29-SUM(D19:D28),"")</f>
-        <v>119</v>
+        <f t="shared" si="9"/>
+        <v>103</v>
       </c>
       <c r="E29" s="4">
-        <f>IF(SUM(E19:E28)&gt;0,D29-SUM(E19:E28),"")</f>
-        <v>111.5</v>
+        <f t="shared" si="9"/>
+        <v>97</v>
       </c>
       <c r="F29" s="4">
-        <f>IF(SUM(F19:F28)&gt;0,E29-SUM(F19:F28),"")</f>
-        <v>106.5</v>
+        <f t="shared" si="9"/>
+        <v>93</v>
       </c>
       <c r="G29" s="4">
-        <f>IF(SUM(G19:G28)&gt;0,F29-SUM(G19:G28),"")</f>
-        <v>105.5</v>
+        <f t="shared" si="9"/>
+        <v>89</v>
       </c>
       <c r="H29" s="4">
-        <f>IF(SUM(H19:H28)&gt;0,G29-SUM(H19:H28),"")</f>
-        <v>98</v>
+        <f t="shared" si="9"/>
+        <v>77</v>
       </c>
       <c r="I29" s="4">
-        <f>IF(SUM(I19:I28)&gt;0,H29-SUM(I19:I28),"")</f>
-        <v>94</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
@@ -4500,87 +4875,135 @@
       </c>
       <c r="B30" s="4">
         <f>B29</f>
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" ref="C30:V30" si="9">B30-($B$30/COUNTA($C$1:$V$1))</f>
-        <v>123.5</v>
+        <f t="shared" ref="C30:V30" si="10">B30-($B$30/COUNTA($C$1:$V$1))</f>
+        <v>109.25</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="9"/>
-        <v>117</v>
+        <f t="shared" si="10"/>
+        <v>103.5</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="9"/>
-        <v>110.5</v>
+        <f t="shared" si="10"/>
+        <v>97.75</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="9"/>
-        <v>104</v>
+        <f t="shared" si="10"/>
+        <v>92</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="9"/>
-        <v>97.5</v>
+        <f t="shared" si="10"/>
+        <v>86.25</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="9"/>
-        <v>91</v>
+        <f t="shared" si="10"/>
+        <v>80.5</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="9"/>
-        <v>84.5</v>
+        <f t="shared" si="10"/>
+        <v>74.75</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="9"/>
-        <v>78</v>
+        <f t="shared" si="10"/>
+        <v>69</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="9"/>
-        <v>71.5</v>
+        <f t="shared" si="10"/>
+        <v>63.25</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="9"/>
-        <v>65</v>
+        <f t="shared" si="10"/>
+        <v>57.5</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="9"/>
-        <v>58.5</v>
+        <f t="shared" si="10"/>
+        <v>51.75</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="9"/>
-        <v>52</v>
+        <f t="shared" si="10"/>
+        <v>46</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="9"/>
-        <v>45.5</v>
+        <f t="shared" si="10"/>
+        <v>40.25</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="9"/>
-        <v>39</v>
+        <f t="shared" si="10"/>
+        <v>34.5</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="9"/>
-        <v>32.5</v>
+        <f t="shared" si="10"/>
+        <v>28.75</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f t="shared" si="10"/>
+        <v>23</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="9"/>
-        <v>19.5</v>
+        <f t="shared" si="10"/>
+        <v>17.25</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="9"/>
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>11.5</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="9"/>
-        <v>6.5</v>
+        <f t="shared" si="10"/>
+        <v>5.75</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <f>SUM(C19:U19)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <f>SUM(C20:U20)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <f>SUM(C21:U21)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <f>SUM(C22:U22)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <f>SUM(C24:U24)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <f>SUM(C25:U25)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <f>SUM(C27:U27)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <f>SUM(C28:U28)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/documentacao/BurnDown/burndownSegundoSprint.xlsx
+++ b/documentacao/BurnDown/burndownSegundoSprint.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TCC\documentacao\BurnDown\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EBF876-3930-47F8-94BC-8CF50944E96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="Restante">OFFSET(Planilha1!$B$12,0,0,1,COUNT(Planilha1!$B$12:$V$12))</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -159,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,7 +306,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -357,6 +351,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -365,32 +360,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -574,7 +543,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0052-43BB-8F10-6532FA048F9A}"/>
             </c:ext>
@@ -756,7 +725,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0052-43BB-8F10-6532FA048F9A}"/>
             </c:ext>
@@ -770,12 +739,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1632363487"/>
-        <c:axId val="1624437247"/>
+        <c:axId val="183557120"/>
+        <c:axId val="204673792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1632363487"/>
+        <c:axId val="183557120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,7 +787,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1624437247"/>
+        <c:crossAx val="204673792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -825,7 +795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1624437247"/>
+        <c:axId val="204673792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +845,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1632363487"/>
+        <c:crossAx val="183557120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -889,6 +859,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -919,14 +890,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -973,7 +944,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1023,6 +994,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1031,32 +1003,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1174,73 +1120,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>89</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-707C-4D1A-A129-43667F42F775}"/>
             </c:ext>
@@ -1356,64 +1302,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.25</c:v>
+                  <c:v>118.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.5</c:v>
+                  <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.75</c:v>
+                  <c:v>106.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.25</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.5</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.75</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.25</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.5</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.75</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.25</c:v>
+                  <c:v>43.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.5</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.75</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.25</c:v>
+                  <c:v>18.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.75</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1422,7 +1368,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-707C-4D1A-A129-43667F42F775}"/>
             </c:ext>
@@ -1436,12 +1382,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2063935391"/>
-        <c:axId val="1998675247"/>
+        <c:axId val="204720768"/>
+        <c:axId val="204722560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2063935391"/>
+        <c:axId val="204720768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,7 +1430,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1998675247"/>
+        <c:crossAx val="204722560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1491,7 +1438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1998675247"/>
+        <c:axId val="204722560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1488,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2063935391"/>
+        <c:crossAx val="204720768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1555,6 +1502,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1585,14 +1533,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2730,7 +2678,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2714,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9E8325-69CE-49E1-9E21-3D6F0BAF918D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B9E8325-69CE-49E1-9E21-3D6F0BAF918D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2830,7 +2778,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2882,7 +2830,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3076,18 +3024,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4377,7 +4325,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -4398,16 +4346,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
@@ -4416,10 +4364,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
@@ -4431,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="T23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
@@ -4786,87 +4734,87 @@
       </c>
       <c r="B29" s="4">
         <f>SUM(B19:B28)</f>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" ref="C29:V29" si="9">IF(SUM(C19:C28)&gt;0,B29-SUM(C19:C28),"")</f>
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="9"/>
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="9"/>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="9"/>
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="9"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="9"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="9"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="9"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M29" s="4">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N29" s="4">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T29" s="4">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V29" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
@@ -4875,83 +4823,83 @@
       </c>
       <c r="B30" s="4">
         <f>B29</f>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30:V30" si="10">B30-($B$30/COUNTA($C$1:$V$1))</f>
-        <v>109.25</v>
+        <v>118.75</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="10"/>
-        <v>103.5</v>
+        <v>112.5</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="10"/>
-        <v>97.75</v>
+        <v>106.25</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="10"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="10"/>
-        <v>86.25</v>
+        <v>93.75</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="10"/>
-        <v>80.5</v>
+        <v>87.5</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="10"/>
-        <v>74.75</v>
+        <v>81.25</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="10"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="10"/>
-        <v>63.25</v>
+        <v>68.75</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="10"/>
-        <v>57.5</v>
+        <v>62.5</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="10"/>
-        <v>51.75</v>
+        <v>56.25</v>
       </c>
       <c r="N30" s="4">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="10"/>
-        <v>40.25</v>
+        <v>43.75</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="10"/>
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="10"/>
-        <v>28.75</v>
+        <v>31.25</v>
       </c>
       <c r="R30" s="4">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="10"/>
-        <v>17.25</v>
+        <v>18.75</v>
       </c>
       <c r="T30" s="4">
         <f t="shared" si="10"/>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="10"/>
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="V30" s="4">
         <f t="shared" si="10"/>
